--- a/data/trans_dic/P25A$medico-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P25A$medico-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,84; 32,4</t>
+          <t>17,7; 31,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,03; 18,15</t>
+          <t>8,3; 18,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,67; 22,51</t>
+          <t>8,95; 22,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,21; 19,11</t>
+          <t>2,19; 19,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 12,58</t>
+          <t>1,36; 12,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,86</t>
+          <t>1,84; 15,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,65; 26,72</t>
+          <t>14,57; 26,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,02; 14,68</t>
+          <t>7,24; 15,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,7; 17,83</t>
+          <t>7,72; 17,94</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,87; 35,46</t>
+          <t>21,4; 33,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,81; 25,58</t>
+          <t>14,43; 25,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,72; 23,11</t>
+          <t>11,43; 23,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,44; 15,23</t>
+          <t>2,39; 14,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,46; 19,23</t>
+          <t>6,19; 20,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,11; 10,21</t>
+          <t>1,1; 10,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,71; 26,76</t>
+          <t>17,04; 26,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,3; 21,98</t>
+          <t>13,1; 21,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,68; 17,12</t>
+          <t>8,76; 17,63</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,65; 31,05</t>
+          <t>16,41; 31,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,76; 34,82</t>
+          <t>20,54; 35,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,21; 40,62</t>
+          <t>23,89; 40,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,52</t>
+          <t>0,0; 18,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,94; 14,73</t>
+          <t>3,07; 14,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,95; 27,19</t>
+          <t>9,02; 26,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,47; 25,05</t>
+          <t>13,78; 25,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,96; 25,1</t>
+          <t>14,94; 25,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,11; 32,29</t>
+          <t>20,27; 33,25</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,93; 39,73</t>
+          <t>25,21; 38,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,46; 27,06</t>
+          <t>15,0; 26,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,89; 21,15</t>
+          <t>11,05; 21,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,54; 19,78</t>
+          <t>6,32; 19,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,23; 16,7</t>
+          <t>4,42; 16,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,31; 14,93</t>
+          <t>4,34; 14,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,02; 30,45</t>
+          <t>19,75; 30,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,63; 21,36</t>
+          <t>12,49; 21,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,54; 17,49</t>
+          <t>9,71; 17,75</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>23,81; 30,56</t>
+          <t>23,46; 30,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,94; 22,68</t>
+          <t>16,9; 22,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,32; 22,57</t>
+          <t>16,13; 22,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,37; 12,57</t>
+          <t>5,34; 13,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,2; 12,12</t>
+          <t>6,3; 12,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,25; 12,43</t>
+          <t>6,33; 12,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,03; 24,55</t>
+          <t>18,99; 24,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,09; 18,41</t>
+          <t>13,96; 18,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,34; 18,32</t>
+          <t>13,39; 18,38</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, el consejo médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>31462</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>23739</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>17755</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2974</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3983</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3076</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>34436</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>27722</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>20832</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>22913; 41076</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>15655; 34013</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>10582; 26119</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>906; 7987</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>979; 9190</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>990; 8191</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>24884; 44648</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>18888; 39973</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>13272; 30858</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>51414</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>48331</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>29164</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>11582</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3873</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>56679</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>59912</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>33037</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>39980; 63151</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>35883; 62386</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>20252; 41071</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1836; 11268</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>6082; 20082</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>952; 9337</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>44956; 70936</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>45465; 76090</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>23099; 46481</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>30954</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>47028</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>41948</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1522</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7903</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>12504</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>32476</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>54931</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>54452</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>22035; 42206</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>35405; 61573</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>31902; 53959</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7192</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3169; 14870</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6726; 19764</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>23979; 43883</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>41165; 69607</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>42181; 69204</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>55668</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>41678</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>28035</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>11291</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>11007</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>10621</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>66959</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>52684</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>38656</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>43869; 67552</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>30951; 54639</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>19500; 38522</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>5865; 18434</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4996; 18185</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5254; 18038</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>52688; 81094</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>39895; 67892</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>28904; 52832</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>169499</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>160776</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>116902</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>21051</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>34474</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>30075</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>190550</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>195250</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>146977</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>146547; 191499</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>137926; 184183</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>97643; 138260</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>13395; 33379</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>24372; 47132</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>21270; 41895</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>166235; 214789</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>167872; 222191</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>125999; 173037</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>